--- a/data/datos_lotes.xlsx
+++ b/data/datos_lotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chapa\Downloads\mi-app-fumigacion-final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0966966-00E4-4E67-8738-59DCFFD2DEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62293587-C476-4FD8-8CBD-875F74B706DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
-    <t>lote_id</t>
-  </si>
-  <si>
     <t>latitud</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>bajo</t>
+  </si>
+  <si>
+    <t>id_lote</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,10 +200,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,9 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -521,30 +519,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>10.901999999999999</v>
@@ -556,10 +554,10 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3">
         <v>45762</v>
@@ -567,7 +565,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>10.936</v>
@@ -579,10 +577,10 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3">
         <v>45763</v>
@@ -590,7 +588,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>10.994999999999999</v>
@@ -602,10 +600,10 @@
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3">
         <v>45764</v>
@@ -613,7 +611,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10.824999999999999</v>
@@ -625,10 +623,10 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3">
         <v>45765</v>
@@ -636,7 +634,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>10.766999999999999</v>
@@ -648,10 +646,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3">
         <v>45766</v>
@@ -659,7 +657,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>10.93</v>
@@ -671,10 +669,10 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3">
         <v>45767</v>
@@ -682,7 +680,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>10.92</v>
@@ -694,10 +692,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3">
         <v>45768</v>
@@ -705,7 +703,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>10.912000000000001</v>
@@ -717,10 +715,10 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>45769</v>
@@ -728,7 +726,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>10.577999999999999</v>
@@ -740,10 +738,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3">
         <v>45770</v>
@@ -751,7 +749,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>10.634</v>
@@ -763,10 +761,10 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3">
         <v>45771</v>
@@ -774,7 +772,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>10.57</v>
@@ -786,10 +784,10 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3">
         <v>45772</v>
@@ -797,7 +795,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>10.515000000000001</v>
@@ -809,10 +807,10 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
         <v>45773</v>
@@ -820,7 +818,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>10.582000000000001</v>
@@ -832,10 +830,10 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3">
         <v>45774</v>
@@ -843,7 +841,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>10.885999999999999</v>
@@ -855,10 +853,10 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3">
         <v>45775</v>
@@ -866,7 +864,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>10.862</v>
@@ -878,10 +876,10 @@
         <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3">
         <v>45776</v>
@@ -889,7 +887,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>10.558999999999999</v>
@@ -901,10 +899,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="3">
         <v>45777</v>
@@ -912,7 +910,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>10.945</v>
@@ -924,10 +922,10 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="3">
         <v>45778</v>
@@ -935,7 +933,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>10.869</v>
@@ -947,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="3">
         <v>45779</v>
@@ -958,7 +956,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>10.708</v>
@@ -970,10 +968,10 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3">
         <v>45780</v>
@@ -981,7 +979,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>10.933999999999999</v>
@@ -993,10 +991,10 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="3">
         <v>45781</v>
@@ -1004,7 +1002,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>10.673</v>
@@ -1016,10 +1014,10 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="3">
         <v>45782</v>
@@ -1027,7 +1025,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>10.914999999999999</v>
@@ -1039,10 +1037,10 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="3">
         <v>45783</v>
@@ -1050,7 +1048,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>10.725</v>
@@ -1062,10 +1060,10 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="3">
         <v>45784</v>
@@ -1073,7 +1071,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>10.984999999999999</v>
@@ -1085,10 +1083,10 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="3">
         <v>45785</v>
@@ -1096,7 +1094,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>10.85</v>
@@ -1108,10 +1106,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3">
         <v>45786</v>
